--- a/NAYRE/Cronograma de Proyecto.xlsx
+++ b/NAYRE/Cronograma de Proyecto.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
   <si>
     <t>No.</t>
   </si>
@@ -162,6 +162,15 @@
   </si>
   <si>
     <t>Programas cada uno y elegir el mejor</t>
+  </si>
+  <si>
+    <t>Subir el programa a GITHUB</t>
+  </si>
+  <si>
+    <t>Subido Finalizado</t>
+  </si>
+  <si>
+    <t>Subir Cronograma</t>
   </si>
 </sst>
 </file>
@@ -255,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,6 +288,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,24 +952,44 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="B20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="B21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
